--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,35 @@
   </si>
   <si>
     <t>3min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1hr </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>贪心、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定i后，再从最右侧循环j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,15 +421,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +448,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2367</v>
       </c>
@@ -432,13 +470,42 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1053</v>
+      </c>
+      <c r="B3">
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"难,中,易"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定i后，再从最右侧循环j</t>
+    <t>固定i后，再从最右侧循环j;swap用法，min_element用法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
